--- a/jauswertung-misc/src/test/resources/competitions/Rekordwerte 2023.xlsx
+++ b/jauswertung-misc/src/test/resources/competitions/Rekordwerte 2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\source\eclipse-workspace\JAuswertung-Project\jauswertung-misc\src\test\resources\competitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554EC282-5A00-48A3-9A22-3D52CFADBF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71CFA0A-2AF3-444A-89D3-4F8CFF54D7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mannschaft" sheetId="4" r:id="rId1"/>
@@ -2005,7 +2005,7 @@
   </sheetPr>
   <dimension ref="A1:AD94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
@@ -11064,7 +11064,7 @@
   <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;14Rekorde Nationales Regelwerk Mannschaftswettbewerbe für 2023 Stand 31.12.2022</oddHeader>
-    <oddFooter>&amp;L&amp;KFF0000Änderungen gegenüber 2021 sind rot markiert&amp;K01+000
+    <oddFooter>&amp;L&amp;KFF0000Änderungen gegenüber 2022 sind rot markiert&amp;K01+000
 &amp;F &amp;A   -  Seite &amp;P/&amp;N &amp;D &amp;T&amp;R
 https://www.dennisfabri.de</oddFooter>
   </headerFooter>
@@ -11081,8 +11081,8 @@
   </sheetPr>
   <dimension ref="A1:AE144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
       <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
     </sheetView>
@@ -24813,7 +24813,7 @@
   <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;14Rekorde Nationales Regelwerk Einzelwettbewerbe für 2023 Stand 31.12.2022</oddHeader>
-    <oddFooter>&amp;L&amp;KFF0000Änderungen gegenüber 2021 sind rot markiert&amp;K01+000
+    <oddFooter>&amp;L&amp;KFF0000Änderungen gegenüber 2022 sind rot markiert&amp;K01+000
 &amp;F &amp;A   -  Seite &amp;P/&amp;N &amp;D &amp;T&amp;R
 https://www.dennisfabri.de</oddFooter>
   </headerFooter>
